--- a/df.sum.xlsx
+++ b/df.sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F63614A-EB50-4654-8A26-7D0D214C0489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137295EF-126B-4088-A50F-8683F654AC6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10940" yWindow="5820" windowWidth="16200" windowHeight="10060" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
+    <workbookView xWindow="9520" yWindow="1700" windowWidth="16200" windowHeight="10060" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Variable</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Surv</t>
-  </si>
-  <si>
     <t>Alive at the end of Survival Period</t>
   </si>
   <si>
@@ -77,15 +74,6 @@
     <t>Wall Motion Score</t>
   </si>
   <si>
-    <t>Alive.E</t>
-  </si>
-  <si>
-    <t>F.Short</t>
-  </si>
-  <si>
-    <t>P.Effus</t>
-  </si>
-  <si>
     <t>EPSS</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>LVDD</t>
   </si>
   <si>
-    <t>Alive.1</t>
-  </si>
-  <si>
     <t>The number of months the patints survived, post-myocardial infarction.</t>
   </si>
   <si>
@@ -129,6 +114,24 @@
   </si>
   <si>
     <t>Binary variable. Derived from the survival and alive at the end of survival period. 0 denotes that a petient is either dead after 1 year o has been followed for less than a year. 1 means patient was alive at 1 year.</t>
+  </si>
+  <si>
+    <t>Alive at End</t>
+  </si>
+  <si>
+    <t>P.Effusion</t>
+  </si>
+  <si>
+    <t>F.Shortening</t>
+  </si>
+  <si>
+    <t>Alive after 1 Year</t>
+  </si>
+  <si>
+    <t>Censored</t>
+  </si>
+  <si>
+    <t>Censored values. 0 denotes censored and 1 denotes uncensored values.</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F33565B-D7E1-49CA-9824-0BDE2028A910}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -504,109 +507,120 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/df.sum.xlsx
+++ b/df.sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137295EF-126B-4088-A50F-8683F654AC6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6579D6BA-BBE4-424C-8B24-60F45995CFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="1700" windowWidth="16200" windowHeight="10060" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Variable</t>
   </si>
@@ -113,25 +113,19 @@
     <t>Wall motion index is the wall motion score divided by the number of segments that are moving. Normally, 12-13 segments can be seen in an echocardiogram.</t>
   </si>
   <si>
-    <t>Binary variable. Derived from the survival and alive at the end of survival period. 0 denotes that a petient is either dead after 1 year o has been followed for less than a year. 1 means patient was alive at 1 year.</t>
-  </si>
-  <si>
-    <t>Alive at End</t>
-  </si>
-  <si>
     <t>P.Effusion</t>
   </si>
   <si>
     <t>F.Shortening</t>
   </si>
   <si>
-    <t>Alive after 1 Year</t>
-  </si>
-  <si>
-    <t>Censored</t>
-  </si>
-  <si>
-    <t>Censored values. 0 denotes censored and 1 denotes uncensored values.</t>
+    <t>Alive.E</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Censorship status. 0 denotes that a patient is a censored while 1 denotes that a patient is uncensored.</t>
   </si>
 </sst>
 </file>
@@ -483,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F33565B-D7E1-49CA-9824-0BDE2028A910}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,112 +509,101 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/df.sum.xlsx
+++ b/df.sum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppham\Documents\578project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steamboat II\Documents\R\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6579D6BA-BBE4-424C-8B24-60F45995CFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C1E33-C523-4593-9B81-7AD98E082116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
+    <workbookView xWindow="0" yWindow="3510" windowWidth="28800" windowHeight="12090" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Variable</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Censorship status. 0 denotes that a patient is a censored while 1 denotes that a patient is uncensored.</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Age.Strata</t>
+  </si>
+  <si>
+    <t>0 denotes 49 or younger. 1 denotes 50 or older. 2 denotes 65 or older.</t>
   </si>
 </sst>
 </file>
@@ -477,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F33565B-D7E1-49CA-9824-0BDE2028A910}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -507,7 +516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -518,7 +527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -529,7 +538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -540,69 +549,80 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
     </row>

--- a/df.sum.xlsx
+++ b/df.sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steamboat II\Documents\R\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C1E33-C523-4593-9B81-7AD98E082116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF06D898-B12E-494D-9640-ED3312C80AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3510" windowWidth="28800" windowHeight="12090" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
+    <workbookView xWindow="2955" yWindow="1275" windowWidth="28800" windowHeight="12090" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Variable</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>0 denotes 49 or younger. 1 denotes 50 or older. 2 denotes 65 or older.</t>
+  </si>
+  <si>
+    <t>Wall Motion Strata</t>
+  </si>
+  <si>
+    <t>WMI.S</t>
+  </si>
+  <si>
+    <t>Binary Variable. 0 denotes that WMI is less than or equal to 1.28. 1 denotes that WMI is greater than or equal to 1.28.</t>
   </si>
 </sst>
 </file>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F33565B-D7E1-49CA-9824-0BDE2028A910}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +635,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/df.sum.xlsx
+++ b/df.sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steamboat II\Documents\R\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF06D898-B12E-494D-9640-ED3312C80AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE876F28-5BC9-41B5-A460-C3195E0204B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1275" windowWidth="28800" windowHeight="12090" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
+    <workbookView xWindow="3735" yWindow="2130" windowWidth="28800" windowHeight="12090" xr2:uid="{C0559229-79EF-4EEA-8B4C-99A31EC2FA22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,19 +131,19 @@
     <t>Age Group</t>
   </si>
   <si>
-    <t>Age.Strata</t>
-  </si>
-  <si>
-    <t>0 denotes 49 or younger. 1 denotes 50 or older. 2 denotes 65 or older.</t>
-  </si>
-  <si>
     <t>Wall Motion Strata</t>
   </si>
   <si>
-    <t>WMI.S</t>
-  </si>
-  <si>
-    <t>Binary Variable. 0 denotes that WMI is less than or equal to 1.28. 1 denotes that WMI is greater than or equal to 1.28.</t>
+    <t>Age.S</t>
+  </si>
+  <si>
+    <t>WMS.S</t>
+  </si>
+  <si>
+    <t>0 denotes younger than 55 years . 1 denotes 55 - 70 years. 2 denotes older than 70</t>
+  </si>
+  <si>
+    <t>0 denotes score less than 11, 1 denotes score 12-14, 2 denotes score greater than 14</t>
   </si>
 </sst>
 </file>
@@ -563,10 +563,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
